--- a/biology/Zoologie/Chlorocyphidae/Chlorocyphidae.xlsx
+++ b/biology/Zoologie/Chlorocyphidae/Chlorocyphidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chlorocyphidae sont une famille d'insectes qui fait partie de l'ordre des odonates et du sous-ordre des zygoptères. On retrouve plus de 150 espèces dans cette famille[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chlorocyphidae sont une famille d'insectes qui fait partie de l'ordre des odonates et du sous-ordre des zygoptères. On retrouve plus de 150 espèces dans cette famille.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de la famille Chlorocyphidae se rencontrent sous des climats chauds et humides[1] en Afrique, en Asie et en Australasie[2] jusqu'aux îles Salomon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la famille Chlorocyphidae se rencontrent sous des climats chauds et humides en Afrique, en Asie et en Australasie jusqu'aux îles Salomon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves vivent dans des ruisseaux peu profonds aux eaux vives. Elles rampent au milieu des racines des plantes aquatiques ou des débris accumulés sur le lit de ce type de ruisseaux. L'eau des ruisseaux où habitent les larves est très bien oxygénée ce qui constitue peut-être une condition nécessaire au développement de la riche pigmentation des mâles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves vivent dans des ruisseaux peu profonds aux eaux vives. Elles rampent au milieu des racines des plantes aquatiques ou des débris accumulés sur le lit de ce type de ruisseaux. L'eau des ruisseaux où habitent les larves est très bien oxygénée ce qui constitue peut-être une condition nécessaire au développement de la riche pigmentation des mâles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les demoiselles de cette famille sont caractérisées par un court abdomen robuste et de longues ailes étroites. De plus, leur clypéus forme une protubérance qui ressemble à une sorte de museau[4],[2]. Les ailes sont pétiolées et présentent un ptérostigma allongé[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les demoiselles de cette famille sont caractérisées par un court abdomen robuste et de longues ailes étroites. De plus, leur clypéus forme une protubérance qui ressemble à une sorte de museau,. Les ailes sont pétiolées et présentent un ptérostigma allongé. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cowley, J. 1937. The penis of the Chlorocyphidae (Odonata) as a group character. Transactions of the Royal Entomological Society of London, 86: 1-18.</t>
         </is>
@@ -634,17 +654,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille comprend 20 genres[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille comprend 20 genres :
 Africocypha Pinhey, 1961
-Aristocypha Laidlaw, 1950[3]
+Aristocypha Laidlaw, 1950
 Calocypha Fraser, 1928
 Chlorocypha Fraser, 1928
 Cyrano Needham &amp; Gyger, 1939
 Disparocypha Rix, 1916
 Heliocypha Fraser, 1949
-Heterocypha Laidlaw, 1950[3]
+Heterocypha Laidlaw, 1950
 Indocypha Fraser, 1949
 Libellago Selys, 1840
 Melanocypha Fraser, 1949
@@ -655,7 +677,7 @@
 Rhinoneura Laidlaw, 1915
 Sclerocypha Fraser, 1949
 Stenocypha Dijkstra, 2013
-Sundacypha Laidlaw, 1950[3]
+Sundacypha Laidlaw, 1950
 Watuwila van Tol, 1998
 </t>
         </is>
